--- a/DHK.Blazor.Server/wwwroot/templates/SectionTemplate.xlsx
+++ b/DHK.Blazor.Server/wwwroot/templates/SectionTemplate.xlsx
@@ -17,18 +17,15 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
     <t>Course</t>
   </si>
   <si>
-    <t>Content</t>
-  </si>
-  <si>
     <t>Teacher</t>
   </si>
   <si>
-    <t>Objective</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
@@ -44,13 +41,10 @@
     <t>I-ABSCS</t>
   </si>
   <si>
+    <t>I100</t>
+  </si>
+  <si>
     <t>SDF</t>
-  </si>
-  <si>
-    <t>This is the content of syllabus</t>
-  </si>
-  <si>
-    <t>This is the objective of syllabus</t>
   </si>
   <si>
     <t>MWF</t>
@@ -411,7 +405,6 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -439,37 +432,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
